--- a/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 1.xlsx
+++ b/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/LightingPaper2020/Submissions/2 Reviewer Comments and Response/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFE39A7-CD9E-404B-99C6-363223D3A6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD9517-3481-3B40-BB72-A6AAF6E09996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="460" windowWidth="28040" windowHeight="28340" xr2:uid="{D340FBFD-9C91-4541-BAF9-99AA2B32DB40}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Responsible</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t xml:space="preserve">However, it should be proofread before the final submission. For example, page 2 line 33, "Ahead...Section 2.1, we..." </t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Make the change that has been suggested. Use the longtable package.</t>
+  </si>
+  <si>
+    <t>Status of changes</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A3:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,10 +587,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -601,10 +601,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -615,10 +615,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -637,10 +637,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -648,13 +648,13 @@
         <v>2.1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -662,18 +662,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -687,10 +687,10 @@
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -698,13 +698,13 @@
         <v>3.1</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="170" x14ac:dyDescent="0.2">
@@ -712,13 +712,13 @@
         <v>3.2</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -726,13 +726,13 @@
         <v>3.3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -740,10 +740,10 @@
         <v>3.4</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -751,13 +751,13 @@
         <v>3.5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -765,13 +765,13 @@
         <v>3.6</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -779,13 +779,13 @@
         <v>3.7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -793,13 +793,13 @@
         <v>3.8</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -807,27 +807,27 @@
         <v>3.9</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -835,13 +835,13 @@
         <v>3.11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 1.xlsx
+++ b/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 1.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/LightingPaper2020/Submissions/2 Reviewer Comments and Response/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Submissions\2 Reviewer Comments and Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD9517-3481-3B40-BB72-A6AAF6E09996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B115A-5D12-451A-A339-C0422040F1CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="460" windowWidth="28040" windowHeight="28340" xr2:uid="{D340FBFD-9C91-4541-BAF9-99AA2B32DB40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D340FBFD-9C91-4541-BAF9-99AA2B32DB40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>The Energy and Exergy of Light</t>
   </si>
@@ -155,6 +166,21 @@
   <si>
     <t>Status of changes</t>
   </si>
+  <si>
+    <t xml:space="preserve">ZM: I think table 7 which compares these three methods is sufficient. It does not matter whether the results are significantly different as the aim of the paper was to identify the correct method, which is the result itself. However, if we do need to provide an example to emphasize the difference between the methods, we could use the long-run time-series for aggregate lighting efficiencies which our reccomended methodology in section 4.3 (see right). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM: These values should work for all six of the lamp types we assessed in our sample, which is described at the top of page 18. We could add a sentence on increasing the sample size to improve the accuracy of these conversion factors, but I believe we have addressed this. </t>
+  </si>
+  <si>
+    <t>ZM: Will do!</t>
+  </si>
+  <si>
+    <t>ZM: I think we should stick with the results we have using an upper limit of 750 nm, and simply state "for the purposes of our analysis we consider the region between 380nm-750nm to constitute visible light" and then cite our original source for this (which i'll find). We could also cite Sliney (2016) about the fuzziness of determining this range (see right, and in dropbox). Many sources even restrict the range to 400-700nm!</t>
+  </si>
+  <si>
+    <t>ZM: I believe reviewer three's comment to be wrong here. Paoli &amp; Cullen use four stages of energy loss to produce the figure 284-350 lm/W (Spectral Efficiency, Driver Efficiency, Wall Plug Efficiency, and Optical Efficiency - see right). The Luminous Efficacy of radiation that he refers to is the bottom row of table 5 (see right) - the spectral efficacy. The luminous effiacy of a source which he refers to is the 284-250 lm/W which includes all of the aformentioned stages.</t>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -226,6 +252,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,6 +270,6076 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Final-to-Useful Aggregate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Energy and Exergy Efficiencies of Electric Lighting in the USA (1880-2015)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Energy Efficiency - Approximate Method</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]AggSeriesV1!$U$2:$U$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1923</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]AggSeriesV1!$W$2:$W$137</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>0.28081991215226937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30689604685212296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33297218155197655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3590483162518302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38512445095168379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41120058565153739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43727672035139098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46335285505124457</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48942898975109816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51550512445095176</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54158125915080535</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56765739385065894</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59373352855051253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61980966325036624</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64588579795021972</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67196193265007342</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69803806734992691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72411420204978061</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75019033674963409</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77626647144948779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80234260614934128</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96281112737920926</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1232796486090773</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2837481698389452</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4442166910688132</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6046852122986812</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7651537335285492</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9256222547584172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0860907759882852</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2465592972181532</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4070278184480212</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5674963396778892</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7279648609077571</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8884333821376251</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0489019033674931</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2093704245973611</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3698389458272291</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5303074670570971</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.6907759882869651</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8512445095168331</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0117130307467015</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0919472913616355</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.1721815519765704</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2524158125915044</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.3326500732064384</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.4128843338213732</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.4931185944363072</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.5733528550512412</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.6535871156661761</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.7338213762811101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.814055636896045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.894289897510979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.974524158125913</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0547584187408479</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.1349926793557819</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.2152269399707158</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.2954612005856507</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3756954612005847</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.4559297218155187</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.5361639824304536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.6163982430453876</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.6765739385065883</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.736749633967789</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.7969253294289897</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.8571010248901905</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.9172767203513912</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.9774524158125919</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.0376281112737926</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0978038067349933</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.1579795021961941</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.2181551976573948</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.2783308931185955</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.3385065885797962</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.3986822840409969</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.4588579795021976</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.5190336749633984</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.5792093704245991</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.6393850658857989</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.6995607613469996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.7597364568082003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.8199121522694011</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.9202049780380692</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.0204978038067374</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.1207906295754047</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.2210834553440728</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.321376281112741</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.4216691068814091</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.5219619326500773</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.6222547584187454</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.7225475841874136</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.8228404099560809</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.923133235724749</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.0234260614934172</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.1237188872620845</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.2240117130307535</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.3243045387994208</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.4245973645680898</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.5248901903367571</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.6251830161054244</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.7254758418740934</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.8257686676427607</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.9060029282576938</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.9862371888726287</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.0664714494875618</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.1467057101024967</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.2269399707174298</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.3071742313323629</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.3874084919472978</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.4676427525622309</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.547877013177164</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.6281112737920989</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.708345534407032</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.7885797950219668</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.8688140556369</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.9490483162518331</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>10.029282576866768</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10.109516837481701</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10.189751098096636</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10.269985358711569</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10.350219619326502</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10.430453879941437</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10.549978320032251</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10.669502760123063</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10.789027200213877</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10.908551640304688</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>11.028076080395502</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11.147600520486314</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11.267124960577128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>11.386649400667942</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>11.506173840758754</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>11.625698280849567</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>12.080432100816614</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12.53516592078366</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>12.989899740750705</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.444633560717751</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.899367380684797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-945C-4648-8C61-08271CDCDDA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Exergy Efficiency - Approximate Method</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]AggSeriesV1!$U$2:$U$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1923</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]AggSeriesV1!$Y$2:$Y$137</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>0.26818301610541723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29308572474377742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31798843338213761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34289114202049781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.367793850658858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3926965592972182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41759926793557839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44250197657393853</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46740468521229872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49230739385065891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51721010248901911</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5421128111273793</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5670155197657395</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59191822840409969</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61682093704245977</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64172364568082008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66662635431918016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69152906295754046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71643177159590055</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74133448023426085</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76623718887262093</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91948462664714481</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0727320644216687</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2259795021961926</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3792269399707167</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5324743777452405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6857218155197644</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8389692532942883</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9922166910688122</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.145464128843336</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2987115666178601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4519590043923842</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6052064421669079</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.758453879941432</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9117013177159556</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0649487554904797</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2181961932650038</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3714436310395275</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5246910688140516</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6779385065885752</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8311859443630998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.9078096632503616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.9844333821376243</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.0610571010248862</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1376808199121484</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.2143045387994116</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.290928257686673</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3675519765739352</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.4441756954611984</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5207994143484598</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5974231332357229</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.6740468521229843</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.7506705710102466</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8272942898975097</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9039180087847711</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9805417276720334</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.0571654465592966</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.1337891654465579</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.2104128843338202</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.2870366032210834</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3636603221083448</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.4211281112737915</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.4785959004392382</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.5360636896046849</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.5935314787701316</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.6509992679355783</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.708467057101025</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.7659348462664717</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.8234026354319184</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.8808704245973651</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.9383382137628118</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9958060029282585</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.0532737920937052</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.1107415812591519</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.1682093704245986</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.2256771595900453</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.283144948755492</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.3406127379209378</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.3980805270863845</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.4555483162518312</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.5130161054172779</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.6087957540263558</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.7045754026354336</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.8003550512445115</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.8961346998535893</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.9919143484626671</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.0876939970717459</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.1834736456808237</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.2792532942899015</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.3750329428989794</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.4708125915080572</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.566592240117135</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.6623718887262129</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.7581515373352907</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.8539311859443695</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.9497108345534464</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.045490483162526</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.1412701317716021</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.2370497803806799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.3328294289897595</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.4286090775988356</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.5052327964860979</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.5818565153733601</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.6584802342606206</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.7351039531478847</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.8117276720351452</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.8883513909224057</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.9649751098096697</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.0415988286969302</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.1182225475841907</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.1948462664714548</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.2714699853587152</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.3480937042459775</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.4247174231332398</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.5013411420205003</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.5779648609077626</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.6545885797950248</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.7312122986822871</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.8078360175695476</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.8844597364568099</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.9610834553440721</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10.075229295630798</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10.189375135917524</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10.303520976204252</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10.417666816490977</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10.531812656777705</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10.645958497064429</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>10.760104337351157</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.874250177637883</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10.988396017924609</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>11.102541858211337</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11.536812656279865</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>11.971083454348395</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>12.405354252416922</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>12.839625050485452</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.27389584855398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-945C-4648-8C61-08271CDCDDA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Energy Efficiency - Conventional Method</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]AggSeriesV1!$AD$2:$AD$137</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>0.20497803806735002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22401171303074682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24304538799414357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26207906295754035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28111273792093711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30014641288433386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31918008784773066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33821376281112747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35724743777452422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37628111273792098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39531478770131773</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41434846266471448</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43338213762811129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45241581259150798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47144948755490479</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4904831625183016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5095168374816984</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5285505124450951</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54758418740849191</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5666178623718886</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58565153733528563</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70278184480234274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81991215226939995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.93704245973645683</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0541727672035139</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.171303074670571</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2884333821376281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4055636896046855</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5226939970717424</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6398243045387992</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7569546120058566</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8740849194729137</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9912152269399706</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1083455344070279</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2254758418740845</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3426061493411421</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4597364568081992</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5768667642752563</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6939970717423134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8111273792093701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9282576866764276</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.9868228404099564</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0453879941434847</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1039531478770135</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1625183016105418</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.2210834553440701</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.2796486090775989</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3382137628111277</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.3967789165446565</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.4553440702781844</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.5139092240117131</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5724743777452419</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6310395314787707</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.689604685212299</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7481698389458273</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.8067349926793561</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.8653001464128844</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.9238653001464132</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.982430453879942</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0409956076134703</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.0995607613469982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1434846266471457</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.1874084919472914</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.2313323572474371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.2752562225475836</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.3191800878477311</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.3631039531478777</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.4070278184480234</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.4509516837481691</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.4948755490483165</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.5387994143484631</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.5827232796486088</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.6266471449487554</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.6705710102489011</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.7144948755490486</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.7584187408491951</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.8023426061493408</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.8462664714494874</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.8901903367496331</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.9341142020497806</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.9780380673499272</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.0512445095168372</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.1244509516837482</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.1976573938506592</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.2708638360175701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.3440702781844802</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.4172767203513912</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.4904831625183022</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.5636896046852122</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.6368960468521232</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.7101024890190342</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.7833089311859442</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.8565153733528552</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.9297218155197662</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.0029282576866763</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.0761346998535872</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.1493411420204982</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.2225475841874083</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.2957540263543192</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.3689604685212302</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.4421669106881403</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.5007320644216691</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.5592972181551978</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.6178623718887257</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.6764275256222554</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.7349926793557833</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.7935578330893112</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.8521229868228408</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.9106881405563687</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.9692532942898984</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.0278184480234263</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.0863836017569541</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.144948755490482</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.2035139092240117</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.2620790629575414</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.3206442166910692</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.3792093704245971</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.437774524158125</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.4963396778916547</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.5549048316251834</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.6134699853587131</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.700714102213321</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.7879582190679297</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.8752023359225376</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.9624464527771455</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.0496905696317533</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.1369346864863612</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.2241788033409708</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.3114229201955805</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.3986670370501884</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.4859111539047962</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.8178336502311065</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9.1497561465574169</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.4816786428837272</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.8136011392100357</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>10.145523635536348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-945C-4648-8C61-08271CDCDDA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Exergy Efficiency - Conventional Method</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]AggSeriesV1!$AF$2:$AF$137</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>0.19575402635431927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21393118594436319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2321083455344071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25028550512445102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26846266471449493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28663982430453883</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30481698389458278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32299414348462674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34117130307467064</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35934846266471454</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37752562225475839</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39570278184480229</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41387994143484624</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43205710102489009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45023426061493405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.468411420204978</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48658857979502196</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50476573938506575</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5229428989751097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.54112005856515355</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55929721815519773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67115666178623734</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78301610541727695</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89487554904831623</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0067349926793558</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1185944363103952</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2304538799414348</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3423133235724747</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4541727672035138</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5660322108345532</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6778916544655929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7897510980966325</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9016105417276719</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0134699853587117</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1253294289897506</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2371888726207905</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3490483162518303</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.4609077598828697</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5727672035139091</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6846266471449485</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7964860907759883</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.852415812591508</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9083455344070277</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9642752562225478</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0202049780380671</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0761346998535868</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1320644216691069</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1879941434846266</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.2439238653001468</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.299853587115666</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3557833089311857</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.4117130307467058</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.467642752562226</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.5235724743777452</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.5795021961932649</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.6354319180087851</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.6913616398243043</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.7472913616398245</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.8032210834553446</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.8591508052708638</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.9150805270863831</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.9570278184480241</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.9989751098096633</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.0409224011713025</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0828696925329426</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.1248169838945827</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.1667642752562228</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.2087115666178621</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.2506588579795013</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.2926061493411423</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.3345534407027824</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.3765007320644216</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.4184480234260608</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.4603953147877</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.502342606149341</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.5442898975109811</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.5862371888726203</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.6281844802342604</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.6701317715958997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.7120790629575406</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.7540263543191799</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.8239385065885791</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.8938506588579793</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.9637628111273795</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.0336749633967797</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.1035871156661781</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.1734992679355782</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.2434114202049784</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.3133235724743777</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.3832357247437779</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.4531478770131772</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.5230600292825764</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.5929721815519766</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.6628843338213768</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.7327964860907752</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.8027086383601754</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.8726207906295755</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.9425329428989748</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.012445095168375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.0823572474377743</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.1522693997071736</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.2081991215226937</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.2641288433382138</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.3200585651537331</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.3759882869692532</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.4319180087847725</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.4878477306002917</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.5437774524158128</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.599707174231332</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.655636896046853</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.7115666178623714</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.7674963396778907</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.8234260614934099</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.8793557833089309</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.935285505124452</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.9912152269399712</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.0471449487554896</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.1030746705710088</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.1590043923865299</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.21493411420205</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.270863836017571</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.3541819676137212</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.4375000992098723</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.5208182308060234</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.6041363624021736</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.6874544939983238</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7.7707726255944749</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.8540907571906269</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7.9374088887867789</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.02072702038293</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.1040451519790793</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.421031135970706</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.7380171199623327</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.0550031039539594</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.3719890879455843</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.688975071937211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-945C-4648-8C61-08271CDCDDA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="531174447"/>
+        <c:axId val="854640911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="531174447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="854640911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="854640911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531174447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1797050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>71664</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5005F8C3-CCED-4367-BEF9-5FD3349F384D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1240573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>128164</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>450093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76700CCE-3F20-4B5F-8E56-726C4F2F7EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17799050" y="8555773"/>
+          <a:ext cx="11437514" cy="4353020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580309</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1745248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF56E344-BAB6-49C1-8F6E-9EBFE59A8A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18230850" y="13163550"/>
+          <a:ext cx="5723809" cy="8019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>62719</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>530162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA62D3C5-6439-4982-8636-A495E540869D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18084800" y="14947900"/>
+          <a:ext cx="6247619" cy="504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AggSeriesV1"/>
+      <sheetName val="Short-Run"/>
+      <sheetName val="Short-Run (sources)"/>
+      <sheetName val="Light Electricity Consumption"/>
+      <sheetName val="Lovins (1988)"/>
+      <sheetName val="HMG (1999)"/>
+      <sheetName val="Vorsatz et al (1997)"/>
+      <sheetName val="Inc"/>
+      <sheetName val="Hal"/>
+      <sheetName val="CFL"/>
+      <sheetName val="Fl"/>
+      <sheetName val="LED"/>
+      <sheetName val="HID"/>
+      <sheetName val="Figures"/>
+      <sheetName val="Long-Run"/>
+      <sheetName val="DOE (2017)"/>
+      <sheetName val="DOE (2012)"/>
+      <sheetName val="DOE (2002)"/>
+      <sheetName val="Notes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="U2">
+            <v>1880</v>
+          </cell>
+          <cell r="W2">
+            <v>0.28081991215226937</v>
+          </cell>
+          <cell r="Y2">
+            <v>0.26818301610541723</v>
+          </cell>
+          <cell r="AD2">
+            <v>0.20497803806735002</v>
+          </cell>
+          <cell r="AF2">
+            <v>0.19575402635431927</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="U3">
+            <v>1881</v>
+          </cell>
+          <cell r="W3">
+            <v>0.30689604685212296</v>
+          </cell>
+          <cell r="Y3">
+            <v>0.29308572474377742</v>
+          </cell>
+          <cell r="AD3">
+            <v>0.22401171303074682</v>
+          </cell>
+          <cell r="AF3">
+            <v>0.21393118594436319</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="U4">
+            <v>1882</v>
+          </cell>
+          <cell r="W4">
+            <v>0.33297218155197655</v>
+          </cell>
+          <cell r="Y4">
+            <v>0.31798843338213761</v>
+          </cell>
+          <cell r="AD4">
+            <v>0.24304538799414357</v>
+          </cell>
+          <cell r="AF4">
+            <v>0.2321083455344071</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="U5">
+            <v>1883</v>
+          </cell>
+          <cell r="W5">
+            <v>0.3590483162518302</v>
+          </cell>
+          <cell r="Y5">
+            <v>0.34289114202049781</v>
+          </cell>
+          <cell r="AD5">
+            <v>0.26207906295754035</v>
+          </cell>
+          <cell r="AF5">
+            <v>0.25028550512445102</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="U6">
+            <v>1884</v>
+          </cell>
+          <cell r="W6">
+            <v>0.38512445095168379</v>
+          </cell>
+          <cell r="Y6">
+            <v>0.367793850658858</v>
+          </cell>
+          <cell r="AD6">
+            <v>0.28111273792093711</v>
+          </cell>
+          <cell r="AF6">
+            <v>0.26846266471449493</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="U7">
+            <v>1885</v>
+          </cell>
+          <cell r="W7">
+            <v>0.41120058565153739</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.3926965592972182</v>
+          </cell>
+          <cell r="AD7">
+            <v>0.30014641288433386</v>
+          </cell>
+          <cell r="AF7">
+            <v>0.28663982430453883</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="U8">
+            <v>1886</v>
+          </cell>
+          <cell r="W8">
+            <v>0.43727672035139098</v>
+          </cell>
+          <cell r="Y8">
+            <v>0.41759926793557839</v>
+          </cell>
+          <cell r="AD8">
+            <v>0.31918008784773066</v>
+          </cell>
+          <cell r="AF8">
+            <v>0.30481698389458278</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="U9">
+            <v>1887</v>
+          </cell>
+          <cell r="W9">
+            <v>0.46335285505124457</v>
+          </cell>
+          <cell r="Y9">
+            <v>0.44250197657393853</v>
+          </cell>
+          <cell r="AD9">
+            <v>0.33821376281112747</v>
+          </cell>
+          <cell r="AF9">
+            <v>0.32299414348462674</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="U10">
+            <v>1888</v>
+          </cell>
+          <cell r="W10">
+            <v>0.48942898975109816</v>
+          </cell>
+          <cell r="Y10">
+            <v>0.46740468521229872</v>
+          </cell>
+          <cell r="AD10">
+            <v>0.35724743777452422</v>
+          </cell>
+          <cell r="AF10">
+            <v>0.34117130307467064</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="U11">
+            <v>1889</v>
+          </cell>
+          <cell r="W11">
+            <v>0.51550512445095176</v>
+          </cell>
+          <cell r="Y11">
+            <v>0.49230739385065891</v>
+          </cell>
+          <cell r="AD11">
+            <v>0.37628111273792098</v>
+          </cell>
+          <cell r="AF11">
+            <v>0.35934846266471454</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="U12">
+            <v>1890</v>
+          </cell>
+          <cell r="W12">
+            <v>0.54158125915080535</v>
+          </cell>
+          <cell r="Y12">
+            <v>0.51721010248901911</v>
+          </cell>
+          <cell r="AD12">
+            <v>0.39531478770131773</v>
+          </cell>
+          <cell r="AF12">
+            <v>0.37752562225475839</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="U13">
+            <v>1891</v>
+          </cell>
+          <cell r="W13">
+            <v>0.56765739385065894</v>
+          </cell>
+          <cell r="Y13">
+            <v>0.5421128111273793</v>
+          </cell>
+          <cell r="AD13">
+            <v>0.41434846266471448</v>
+          </cell>
+          <cell r="AF13">
+            <v>0.39570278184480229</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="U14">
+            <v>1892</v>
+          </cell>
+          <cell r="W14">
+            <v>0.59373352855051253</v>
+          </cell>
+          <cell r="Y14">
+            <v>0.5670155197657395</v>
+          </cell>
+          <cell r="AD14">
+            <v>0.43338213762811129</v>
+          </cell>
+          <cell r="AF14">
+            <v>0.41387994143484624</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="U15">
+            <v>1893</v>
+          </cell>
+          <cell r="W15">
+            <v>0.61980966325036624</v>
+          </cell>
+          <cell r="Y15">
+            <v>0.59191822840409969</v>
+          </cell>
+          <cell r="AD15">
+            <v>0.45241581259150798</v>
+          </cell>
+          <cell r="AF15">
+            <v>0.43205710102489009</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="U16">
+            <v>1894</v>
+          </cell>
+          <cell r="W16">
+            <v>0.64588579795021972</v>
+          </cell>
+          <cell r="Y16">
+            <v>0.61682093704245977</v>
+          </cell>
+          <cell r="AD16">
+            <v>0.47144948755490479</v>
+          </cell>
+          <cell r="AF16">
+            <v>0.45023426061493405</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="U17">
+            <v>1895</v>
+          </cell>
+          <cell r="W17">
+            <v>0.67196193265007342</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.64172364568082008</v>
+          </cell>
+          <cell r="AD17">
+            <v>0.4904831625183016</v>
+          </cell>
+          <cell r="AF17">
+            <v>0.468411420204978</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="U18">
+            <v>1896</v>
+          </cell>
+          <cell r="W18">
+            <v>0.69803806734992691</v>
+          </cell>
+          <cell r="Y18">
+            <v>0.66662635431918016</v>
+          </cell>
+          <cell r="AD18">
+            <v>0.5095168374816984</v>
+          </cell>
+          <cell r="AF18">
+            <v>0.48658857979502196</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="U19">
+            <v>1897</v>
+          </cell>
+          <cell r="W19">
+            <v>0.72411420204978061</v>
+          </cell>
+          <cell r="Y19">
+            <v>0.69152906295754046</v>
+          </cell>
+          <cell r="AD19">
+            <v>0.5285505124450951</v>
+          </cell>
+          <cell r="AF19">
+            <v>0.50476573938506575</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="U20">
+            <v>1898</v>
+          </cell>
+          <cell r="W20">
+            <v>0.75019033674963409</v>
+          </cell>
+          <cell r="Y20">
+            <v>0.71643177159590055</v>
+          </cell>
+          <cell r="AD20">
+            <v>0.54758418740849191</v>
+          </cell>
+          <cell r="AF20">
+            <v>0.5229428989751097</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="U21">
+            <v>1899</v>
+          </cell>
+          <cell r="W21">
+            <v>0.77626647144948779</v>
+          </cell>
+          <cell r="Y21">
+            <v>0.74133448023426085</v>
+          </cell>
+          <cell r="AD21">
+            <v>0.5666178623718886</v>
+          </cell>
+          <cell r="AF21">
+            <v>0.54112005856515355</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="U22">
+            <v>1900</v>
+          </cell>
+          <cell r="W22">
+            <v>0.80234260614934128</v>
+          </cell>
+          <cell r="Y22">
+            <v>0.76623718887262093</v>
+          </cell>
+          <cell r="AD22">
+            <v>0.58565153733528563</v>
+          </cell>
+          <cell r="AF22">
+            <v>0.55929721815519773</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="U23">
+            <v>1901</v>
+          </cell>
+          <cell r="W23">
+            <v>0.96281112737920926</v>
+          </cell>
+          <cell r="Y23">
+            <v>0.91948462664714481</v>
+          </cell>
+          <cell r="AD23">
+            <v>0.70278184480234274</v>
+          </cell>
+          <cell r="AF23">
+            <v>0.67115666178623734</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="U24">
+            <v>1902</v>
+          </cell>
+          <cell r="W24">
+            <v>1.1232796486090773</v>
+          </cell>
+          <cell r="Y24">
+            <v>1.0727320644216687</v>
+          </cell>
+          <cell r="AD24">
+            <v>0.81991215226939995</v>
+          </cell>
+          <cell r="AF24">
+            <v>0.78301610541727695</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="U25">
+            <v>1903</v>
+          </cell>
+          <cell r="W25">
+            <v>1.2837481698389452</v>
+          </cell>
+          <cell r="Y25">
+            <v>1.2259795021961926</v>
+          </cell>
+          <cell r="AD25">
+            <v>0.93704245973645683</v>
+          </cell>
+          <cell r="AF25">
+            <v>0.89487554904831623</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="U26">
+            <v>1904</v>
+          </cell>
+          <cell r="W26">
+            <v>1.4442166910688132</v>
+          </cell>
+          <cell r="Y26">
+            <v>1.3792269399707167</v>
+          </cell>
+          <cell r="AD26">
+            <v>1.0541727672035139</v>
+          </cell>
+          <cell r="AF26">
+            <v>1.0067349926793558</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="U27">
+            <v>1905</v>
+          </cell>
+          <cell r="W27">
+            <v>1.6046852122986812</v>
+          </cell>
+          <cell r="Y27">
+            <v>1.5324743777452405</v>
+          </cell>
+          <cell r="AD27">
+            <v>1.171303074670571</v>
+          </cell>
+          <cell r="AF27">
+            <v>1.1185944363103952</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="U28">
+            <v>1906</v>
+          </cell>
+          <cell r="W28">
+            <v>1.7651537335285492</v>
+          </cell>
+          <cell r="Y28">
+            <v>1.6857218155197644</v>
+          </cell>
+          <cell r="AD28">
+            <v>1.2884333821376281</v>
+          </cell>
+          <cell r="AF28">
+            <v>1.2304538799414348</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="U29">
+            <v>1907</v>
+          </cell>
+          <cell r="W29">
+            <v>1.9256222547584172</v>
+          </cell>
+          <cell r="Y29">
+            <v>1.8389692532942883</v>
+          </cell>
+          <cell r="AD29">
+            <v>1.4055636896046855</v>
+          </cell>
+          <cell r="AF29">
+            <v>1.3423133235724747</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="U30">
+            <v>1908</v>
+          </cell>
+          <cell r="W30">
+            <v>2.0860907759882852</v>
+          </cell>
+          <cell r="Y30">
+            <v>1.9922166910688122</v>
+          </cell>
+          <cell r="AD30">
+            <v>1.5226939970717424</v>
+          </cell>
+          <cell r="AF30">
+            <v>1.4541727672035138</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="U31">
+            <v>1909</v>
+          </cell>
+          <cell r="W31">
+            <v>2.2465592972181532</v>
+          </cell>
+          <cell r="Y31">
+            <v>2.145464128843336</v>
+          </cell>
+          <cell r="AD31">
+            <v>1.6398243045387992</v>
+          </cell>
+          <cell r="AF31">
+            <v>1.5660322108345532</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="U32">
+            <v>1910</v>
+          </cell>
+          <cell r="W32">
+            <v>2.4070278184480212</v>
+          </cell>
+          <cell r="Y32">
+            <v>2.2987115666178601</v>
+          </cell>
+          <cell r="AD32">
+            <v>1.7569546120058566</v>
+          </cell>
+          <cell r="AF32">
+            <v>1.6778916544655929</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="U33">
+            <v>1911</v>
+          </cell>
+          <cell r="W33">
+            <v>2.5674963396778892</v>
+          </cell>
+          <cell r="Y33">
+            <v>2.4519590043923842</v>
+          </cell>
+          <cell r="AD33">
+            <v>1.8740849194729137</v>
+          </cell>
+          <cell r="AF33">
+            <v>1.7897510980966325</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="U34">
+            <v>1912</v>
+          </cell>
+          <cell r="W34">
+            <v>2.7279648609077571</v>
+          </cell>
+          <cell r="Y34">
+            <v>2.6052064421669079</v>
+          </cell>
+          <cell r="AD34">
+            <v>1.9912152269399706</v>
+          </cell>
+          <cell r="AF34">
+            <v>1.9016105417276719</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="U35">
+            <v>1913</v>
+          </cell>
+          <cell r="W35">
+            <v>2.8884333821376251</v>
+          </cell>
+          <cell r="Y35">
+            <v>2.758453879941432</v>
+          </cell>
+          <cell r="AD35">
+            <v>2.1083455344070279</v>
+          </cell>
+          <cell r="AF35">
+            <v>2.0134699853587117</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="U36">
+            <v>1914</v>
+          </cell>
+          <cell r="W36">
+            <v>3.0489019033674931</v>
+          </cell>
+          <cell r="Y36">
+            <v>2.9117013177159556</v>
+          </cell>
+          <cell r="AD36">
+            <v>2.2254758418740845</v>
+          </cell>
+          <cell r="AF36">
+            <v>2.1253294289897506</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="U37">
+            <v>1915</v>
+          </cell>
+          <cell r="W37">
+            <v>3.2093704245973611</v>
+          </cell>
+          <cell r="Y37">
+            <v>3.0649487554904797</v>
+          </cell>
+          <cell r="AD37">
+            <v>2.3426061493411421</v>
+          </cell>
+          <cell r="AF37">
+            <v>2.2371888726207905</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="U38">
+            <v>1916</v>
+          </cell>
+          <cell r="W38">
+            <v>3.3698389458272291</v>
+          </cell>
+          <cell r="Y38">
+            <v>3.2181961932650038</v>
+          </cell>
+          <cell r="AD38">
+            <v>2.4597364568081992</v>
+          </cell>
+          <cell r="AF38">
+            <v>2.3490483162518303</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="U39">
+            <v>1917</v>
+          </cell>
+          <cell r="W39">
+            <v>3.5303074670570971</v>
+          </cell>
+          <cell r="Y39">
+            <v>3.3714436310395275</v>
+          </cell>
+          <cell r="AD39">
+            <v>2.5768667642752563</v>
+          </cell>
+          <cell r="AF39">
+            <v>2.4609077598828697</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="U40">
+            <v>1918</v>
+          </cell>
+          <cell r="W40">
+            <v>3.6907759882869651</v>
+          </cell>
+          <cell r="Y40">
+            <v>3.5246910688140516</v>
+          </cell>
+          <cell r="AD40">
+            <v>2.6939970717423134</v>
+          </cell>
+          <cell r="AF40">
+            <v>2.5727672035139091</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="U41">
+            <v>1919</v>
+          </cell>
+          <cell r="W41">
+            <v>3.8512445095168331</v>
+          </cell>
+          <cell r="Y41">
+            <v>3.6779385065885752</v>
+          </cell>
+          <cell r="AD41">
+            <v>2.8111273792093701</v>
+          </cell>
+          <cell r="AF41">
+            <v>2.6846266471449485</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="U42">
+            <v>1920</v>
+          </cell>
+          <cell r="W42">
+            <v>4.0117130307467015</v>
+          </cell>
+          <cell r="Y42">
+            <v>3.8311859443630998</v>
+          </cell>
+          <cell r="AD42">
+            <v>2.9282576866764276</v>
+          </cell>
+          <cell r="AF42">
+            <v>2.7964860907759883</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="U43">
+            <v>1921</v>
+          </cell>
+          <cell r="W43">
+            <v>4.0919472913616355</v>
+          </cell>
+          <cell r="Y43">
+            <v>3.9078096632503616</v>
+          </cell>
+          <cell r="AD43">
+            <v>2.9868228404099564</v>
+          </cell>
+          <cell r="AF43">
+            <v>2.852415812591508</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="U44">
+            <v>1922</v>
+          </cell>
+          <cell r="W44">
+            <v>4.1721815519765704</v>
+          </cell>
+          <cell r="Y44">
+            <v>3.9844333821376243</v>
+          </cell>
+          <cell r="AD44">
+            <v>3.0453879941434847</v>
+          </cell>
+          <cell r="AF44">
+            <v>2.9083455344070277</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="U45">
+            <v>1923</v>
+          </cell>
+          <cell r="W45">
+            <v>4.2524158125915044</v>
+          </cell>
+          <cell r="Y45">
+            <v>4.0610571010248862</v>
+          </cell>
+          <cell r="AD45">
+            <v>3.1039531478770135</v>
+          </cell>
+          <cell r="AF45">
+            <v>2.9642752562225478</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="U46">
+            <v>1924</v>
+          </cell>
+          <cell r="W46">
+            <v>4.3326500732064384</v>
+          </cell>
+          <cell r="Y46">
+            <v>4.1376808199121484</v>
+          </cell>
+          <cell r="AD46">
+            <v>3.1625183016105418</v>
+          </cell>
+          <cell r="AF46">
+            <v>3.0202049780380671</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="U47">
+            <v>1925</v>
+          </cell>
+          <cell r="W47">
+            <v>4.4128843338213732</v>
+          </cell>
+          <cell r="Y47">
+            <v>4.2143045387994116</v>
+          </cell>
+          <cell r="AD47">
+            <v>3.2210834553440701</v>
+          </cell>
+          <cell r="AF47">
+            <v>3.0761346998535868</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="U48">
+            <v>1926</v>
+          </cell>
+          <cell r="W48">
+            <v>4.4931185944363072</v>
+          </cell>
+          <cell r="Y48">
+            <v>4.290928257686673</v>
+          </cell>
+          <cell r="AD48">
+            <v>3.2796486090775989</v>
+          </cell>
+          <cell r="AF48">
+            <v>3.1320644216691069</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="U49">
+            <v>1927</v>
+          </cell>
+          <cell r="W49">
+            <v>4.5733528550512412</v>
+          </cell>
+          <cell r="Y49">
+            <v>4.3675519765739352</v>
+          </cell>
+          <cell r="AD49">
+            <v>3.3382137628111277</v>
+          </cell>
+          <cell r="AF49">
+            <v>3.1879941434846266</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="U50">
+            <v>1928</v>
+          </cell>
+          <cell r="W50">
+            <v>4.6535871156661761</v>
+          </cell>
+          <cell r="Y50">
+            <v>4.4441756954611984</v>
+          </cell>
+          <cell r="AD50">
+            <v>3.3967789165446565</v>
+          </cell>
+          <cell r="AF50">
+            <v>3.2439238653001468</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="U51">
+            <v>1929</v>
+          </cell>
+          <cell r="W51">
+            <v>4.7338213762811101</v>
+          </cell>
+          <cell r="Y51">
+            <v>4.5207994143484598</v>
+          </cell>
+          <cell r="AD51">
+            <v>3.4553440702781844</v>
+          </cell>
+          <cell r="AF51">
+            <v>3.299853587115666</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="U52">
+            <v>1930</v>
+          </cell>
+          <cell r="W52">
+            <v>4.814055636896045</v>
+          </cell>
+          <cell r="Y52">
+            <v>4.5974231332357229</v>
+          </cell>
+          <cell r="AD52">
+            <v>3.5139092240117131</v>
+          </cell>
+          <cell r="AF52">
+            <v>3.3557833089311857</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="U53">
+            <v>1931</v>
+          </cell>
+          <cell r="W53">
+            <v>4.894289897510979</v>
+          </cell>
+          <cell r="Y53">
+            <v>4.6740468521229843</v>
+          </cell>
+          <cell r="AD53">
+            <v>3.5724743777452419</v>
+          </cell>
+          <cell r="AF53">
+            <v>3.4117130307467058</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="U54">
+            <v>1932</v>
+          </cell>
+          <cell r="W54">
+            <v>4.974524158125913</v>
+          </cell>
+          <cell r="Y54">
+            <v>4.7506705710102466</v>
+          </cell>
+          <cell r="AD54">
+            <v>3.6310395314787707</v>
+          </cell>
+          <cell r="AF54">
+            <v>3.467642752562226</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="U55">
+            <v>1933</v>
+          </cell>
+          <cell r="W55">
+            <v>5.0547584187408479</v>
+          </cell>
+          <cell r="Y55">
+            <v>4.8272942898975097</v>
+          </cell>
+          <cell r="AD55">
+            <v>3.689604685212299</v>
+          </cell>
+          <cell r="AF55">
+            <v>3.5235724743777452</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="U56">
+            <v>1934</v>
+          </cell>
+          <cell r="W56">
+            <v>5.1349926793557819</v>
+          </cell>
+          <cell r="Y56">
+            <v>4.9039180087847711</v>
+          </cell>
+          <cell r="AD56">
+            <v>3.7481698389458273</v>
+          </cell>
+          <cell r="AF56">
+            <v>3.5795021961932649</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="U57">
+            <v>1935</v>
+          </cell>
+          <cell r="W57">
+            <v>5.2152269399707158</v>
+          </cell>
+          <cell r="Y57">
+            <v>4.9805417276720334</v>
+          </cell>
+          <cell r="AD57">
+            <v>3.8067349926793561</v>
+          </cell>
+          <cell r="AF57">
+            <v>3.6354319180087851</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="U58">
+            <v>1936</v>
+          </cell>
+          <cell r="W58">
+            <v>5.2954612005856507</v>
+          </cell>
+          <cell r="Y58">
+            <v>5.0571654465592966</v>
+          </cell>
+          <cell r="AD58">
+            <v>3.8653001464128844</v>
+          </cell>
+          <cell r="AF58">
+            <v>3.6913616398243043</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="U59">
+            <v>1937</v>
+          </cell>
+          <cell r="W59">
+            <v>5.3756954612005847</v>
+          </cell>
+          <cell r="Y59">
+            <v>5.1337891654465579</v>
+          </cell>
+          <cell r="AD59">
+            <v>3.9238653001464132</v>
+          </cell>
+          <cell r="AF59">
+            <v>3.7472913616398245</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="U60">
+            <v>1938</v>
+          </cell>
+          <cell r="W60">
+            <v>5.4559297218155187</v>
+          </cell>
+          <cell r="Y60">
+            <v>5.2104128843338202</v>
+          </cell>
+          <cell r="AD60">
+            <v>3.982430453879942</v>
+          </cell>
+          <cell r="AF60">
+            <v>3.8032210834553446</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="U61">
+            <v>1939</v>
+          </cell>
+          <cell r="W61">
+            <v>5.5361639824304536</v>
+          </cell>
+          <cell r="Y61">
+            <v>5.2870366032210834</v>
+          </cell>
+          <cell r="AD61">
+            <v>4.0409956076134703</v>
+          </cell>
+          <cell r="AF61">
+            <v>3.8591508052708638</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="U62">
+            <v>1940</v>
+          </cell>
+          <cell r="W62">
+            <v>5.6163982430453876</v>
+          </cell>
+          <cell r="Y62">
+            <v>5.3636603221083448</v>
+          </cell>
+          <cell r="AD62">
+            <v>4.0995607613469982</v>
+          </cell>
+          <cell r="AF62">
+            <v>3.9150805270863831</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="U63">
+            <v>1941</v>
+          </cell>
+          <cell r="W63">
+            <v>5.6765739385065883</v>
+          </cell>
+          <cell r="Y63">
+            <v>5.4211281112737915</v>
+          </cell>
+          <cell r="AD63">
+            <v>4.1434846266471457</v>
+          </cell>
+          <cell r="AF63">
+            <v>3.9570278184480241</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="U64">
+            <v>1942</v>
+          </cell>
+          <cell r="W64">
+            <v>5.736749633967789</v>
+          </cell>
+          <cell r="Y64">
+            <v>5.4785959004392382</v>
+          </cell>
+          <cell r="AD64">
+            <v>4.1874084919472914</v>
+          </cell>
+          <cell r="AF64">
+            <v>3.9989751098096633</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="U65">
+            <v>1943</v>
+          </cell>
+          <cell r="W65">
+            <v>5.7969253294289897</v>
+          </cell>
+          <cell r="Y65">
+            <v>5.5360636896046849</v>
+          </cell>
+          <cell r="AD65">
+            <v>4.2313323572474371</v>
+          </cell>
+          <cell r="AF65">
+            <v>4.0409224011713025</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="U66">
+            <v>1944</v>
+          </cell>
+          <cell r="W66">
+            <v>5.8571010248901905</v>
+          </cell>
+          <cell r="Y66">
+            <v>5.5935314787701316</v>
+          </cell>
+          <cell r="AD66">
+            <v>4.2752562225475836</v>
+          </cell>
+          <cell r="AF66">
+            <v>4.0828696925329426</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="U67">
+            <v>1945</v>
+          </cell>
+          <cell r="W67">
+            <v>5.9172767203513912</v>
+          </cell>
+          <cell r="Y67">
+            <v>5.6509992679355783</v>
+          </cell>
+          <cell r="AD67">
+            <v>4.3191800878477311</v>
+          </cell>
+          <cell r="AF67">
+            <v>4.1248169838945827</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="U68">
+            <v>1946</v>
+          </cell>
+          <cell r="W68">
+            <v>5.9774524158125919</v>
+          </cell>
+          <cell r="Y68">
+            <v>5.708467057101025</v>
+          </cell>
+          <cell r="AD68">
+            <v>4.3631039531478777</v>
+          </cell>
+          <cell r="AF68">
+            <v>4.1667642752562228</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="U69">
+            <v>1947</v>
+          </cell>
+          <cell r="W69">
+            <v>6.0376281112737926</v>
+          </cell>
+          <cell r="Y69">
+            <v>5.7659348462664717</v>
+          </cell>
+          <cell r="AD69">
+            <v>4.4070278184480234</v>
+          </cell>
+          <cell r="AF69">
+            <v>4.2087115666178621</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="U70">
+            <v>1948</v>
+          </cell>
+          <cell r="W70">
+            <v>6.0978038067349933</v>
+          </cell>
+          <cell r="Y70">
+            <v>5.8234026354319184</v>
+          </cell>
+          <cell r="AD70">
+            <v>4.4509516837481691</v>
+          </cell>
+          <cell r="AF70">
+            <v>4.2506588579795013</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="U71">
+            <v>1949</v>
+          </cell>
+          <cell r="W71">
+            <v>6.1579795021961941</v>
+          </cell>
+          <cell r="Y71">
+            <v>5.8808704245973651</v>
+          </cell>
+          <cell r="AD71">
+            <v>4.4948755490483165</v>
+          </cell>
+          <cell r="AF71">
+            <v>4.2926061493411423</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="U72">
+            <v>1950</v>
+          </cell>
+          <cell r="W72">
+            <v>6.2181551976573948</v>
+          </cell>
+          <cell r="Y72">
+            <v>5.9383382137628118</v>
+          </cell>
+          <cell r="AD72">
+            <v>4.5387994143484631</v>
+          </cell>
+          <cell r="AF72">
+            <v>4.3345534407027824</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="U73">
+            <v>1951</v>
+          </cell>
+          <cell r="W73">
+            <v>6.2783308931185955</v>
+          </cell>
+          <cell r="Y73">
+            <v>5.9958060029282585</v>
+          </cell>
+          <cell r="AD73">
+            <v>4.5827232796486088</v>
+          </cell>
+          <cell r="AF73">
+            <v>4.3765007320644216</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="U74">
+            <v>1952</v>
+          </cell>
+          <cell r="W74">
+            <v>6.3385065885797962</v>
+          </cell>
+          <cell r="Y74">
+            <v>6.0532737920937052</v>
+          </cell>
+          <cell r="AD74">
+            <v>4.6266471449487554</v>
+          </cell>
+          <cell r="AF74">
+            <v>4.4184480234260608</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="U75">
+            <v>1953</v>
+          </cell>
+          <cell r="W75">
+            <v>6.3986822840409969</v>
+          </cell>
+          <cell r="Y75">
+            <v>6.1107415812591519</v>
+          </cell>
+          <cell r="AD75">
+            <v>4.6705710102489011</v>
+          </cell>
+          <cell r="AF75">
+            <v>4.4603953147877</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="U76">
+            <v>1954</v>
+          </cell>
+          <cell r="W76">
+            <v>6.4588579795021976</v>
+          </cell>
+          <cell r="Y76">
+            <v>6.1682093704245986</v>
+          </cell>
+          <cell r="AD76">
+            <v>4.7144948755490486</v>
+          </cell>
+          <cell r="AF76">
+            <v>4.502342606149341</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="U77">
+            <v>1955</v>
+          </cell>
+          <cell r="W77">
+            <v>6.5190336749633984</v>
+          </cell>
+          <cell r="Y77">
+            <v>6.2256771595900453</v>
+          </cell>
+          <cell r="AD77">
+            <v>4.7584187408491951</v>
+          </cell>
+          <cell r="AF77">
+            <v>4.5442898975109811</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="U78">
+            <v>1956</v>
+          </cell>
+          <cell r="W78">
+            <v>6.5792093704245991</v>
+          </cell>
+          <cell r="Y78">
+            <v>6.283144948755492</v>
+          </cell>
+          <cell r="AD78">
+            <v>4.8023426061493408</v>
+          </cell>
+          <cell r="AF78">
+            <v>4.5862371888726203</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="U79">
+            <v>1957</v>
+          </cell>
+          <cell r="W79">
+            <v>6.6393850658857989</v>
+          </cell>
+          <cell r="Y79">
+            <v>6.3406127379209378</v>
+          </cell>
+          <cell r="AD79">
+            <v>4.8462664714494874</v>
+          </cell>
+          <cell r="AF79">
+            <v>4.6281844802342604</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="U80">
+            <v>1958</v>
+          </cell>
+          <cell r="W80">
+            <v>6.6995607613469996</v>
+          </cell>
+          <cell r="Y80">
+            <v>6.3980805270863845</v>
+          </cell>
+          <cell r="AD80">
+            <v>4.8901903367496331</v>
+          </cell>
+          <cell r="AF80">
+            <v>4.6701317715958997</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="U81">
+            <v>1959</v>
+          </cell>
+          <cell r="W81">
+            <v>6.7597364568082003</v>
+          </cell>
+          <cell r="Y81">
+            <v>6.4555483162518312</v>
+          </cell>
+          <cell r="AD81">
+            <v>4.9341142020497806</v>
+          </cell>
+          <cell r="AF81">
+            <v>4.7120790629575406</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="U82">
+            <v>1960</v>
+          </cell>
+          <cell r="W82">
+            <v>6.8199121522694011</v>
+          </cell>
+          <cell r="Y82">
+            <v>6.5130161054172779</v>
+          </cell>
+          <cell r="AD82">
+            <v>4.9780380673499272</v>
+          </cell>
+          <cell r="AF82">
+            <v>4.7540263543191799</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="U83">
+            <v>1961</v>
+          </cell>
+          <cell r="W83">
+            <v>6.9202049780380692</v>
+          </cell>
+          <cell r="Y83">
+            <v>6.6087957540263558</v>
+          </cell>
+          <cell r="AD83">
+            <v>5.0512445095168372</v>
+          </cell>
+          <cell r="AF83">
+            <v>4.8239385065885791</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="U84">
+            <v>1962</v>
+          </cell>
+          <cell r="W84">
+            <v>7.0204978038067374</v>
+          </cell>
+          <cell r="Y84">
+            <v>6.7045754026354336</v>
+          </cell>
+          <cell r="AD84">
+            <v>5.1244509516837482</v>
+          </cell>
+          <cell r="AF84">
+            <v>4.8938506588579793</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="U85">
+            <v>1963</v>
+          </cell>
+          <cell r="W85">
+            <v>7.1207906295754047</v>
+          </cell>
+          <cell r="Y85">
+            <v>6.8003550512445115</v>
+          </cell>
+          <cell r="AD85">
+            <v>5.1976573938506592</v>
+          </cell>
+          <cell r="AF85">
+            <v>4.9637628111273795</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="U86">
+            <v>1964</v>
+          </cell>
+          <cell r="W86">
+            <v>7.2210834553440728</v>
+          </cell>
+          <cell r="Y86">
+            <v>6.8961346998535893</v>
+          </cell>
+          <cell r="AD86">
+            <v>5.2708638360175701</v>
+          </cell>
+          <cell r="AF86">
+            <v>5.0336749633967797</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="U87">
+            <v>1965</v>
+          </cell>
+          <cell r="W87">
+            <v>7.321376281112741</v>
+          </cell>
+          <cell r="Y87">
+            <v>6.9919143484626671</v>
+          </cell>
+          <cell r="AD87">
+            <v>5.3440702781844802</v>
+          </cell>
+          <cell r="AF87">
+            <v>5.1035871156661781</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="U88">
+            <v>1966</v>
+          </cell>
+          <cell r="W88">
+            <v>7.4216691068814091</v>
+          </cell>
+          <cell r="Y88">
+            <v>7.0876939970717459</v>
+          </cell>
+          <cell r="AD88">
+            <v>5.4172767203513912</v>
+          </cell>
+          <cell r="AF88">
+            <v>5.1734992679355782</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="U89">
+            <v>1967</v>
+          </cell>
+          <cell r="W89">
+            <v>7.5219619326500773</v>
+          </cell>
+          <cell r="Y89">
+            <v>7.1834736456808237</v>
+          </cell>
+          <cell r="AD89">
+            <v>5.4904831625183022</v>
+          </cell>
+          <cell r="AF89">
+            <v>5.2434114202049784</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="U90">
+            <v>1968</v>
+          </cell>
+          <cell r="W90">
+            <v>7.6222547584187454</v>
+          </cell>
+          <cell r="Y90">
+            <v>7.2792532942899015</v>
+          </cell>
+          <cell r="AD90">
+            <v>5.5636896046852122</v>
+          </cell>
+          <cell r="AF90">
+            <v>5.3133235724743777</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="U91">
+            <v>1969</v>
+          </cell>
+          <cell r="W91">
+            <v>7.7225475841874136</v>
+          </cell>
+          <cell r="Y91">
+            <v>7.3750329428989794</v>
+          </cell>
+          <cell r="AD91">
+            <v>5.6368960468521232</v>
+          </cell>
+          <cell r="AF91">
+            <v>5.3832357247437779</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="U92">
+            <v>1970</v>
+          </cell>
+          <cell r="W92">
+            <v>7.8228404099560809</v>
+          </cell>
+          <cell r="Y92">
+            <v>7.4708125915080572</v>
+          </cell>
+          <cell r="AD92">
+            <v>5.7101024890190342</v>
+          </cell>
+          <cell r="AF92">
+            <v>5.4531478770131772</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="U93">
+            <v>1971</v>
+          </cell>
+          <cell r="W93">
+            <v>7.923133235724749</v>
+          </cell>
+          <cell r="Y93">
+            <v>7.566592240117135</v>
+          </cell>
+          <cell r="AD93">
+            <v>5.7833089311859442</v>
+          </cell>
+          <cell r="AF93">
+            <v>5.5230600292825764</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="U94">
+            <v>1972</v>
+          </cell>
+          <cell r="W94">
+            <v>8.0234260614934172</v>
+          </cell>
+          <cell r="Y94">
+            <v>7.6623718887262129</v>
+          </cell>
+          <cell r="AD94">
+            <v>5.8565153733528552</v>
+          </cell>
+          <cell r="AF94">
+            <v>5.5929721815519766</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="U95">
+            <v>1973</v>
+          </cell>
+          <cell r="W95">
+            <v>8.1237188872620845</v>
+          </cell>
+          <cell r="Y95">
+            <v>7.7581515373352907</v>
+          </cell>
+          <cell r="AD95">
+            <v>5.9297218155197662</v>
+          </cell>
+          <cell r="AF95">
+            <v>5.6628843338213768</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="U96">
+            <v>1974</v>
+          </cell>
+          <cell r="W96">
+            <v>8.2240117130307535</v>
+          </cell>
+          <cell r="Y96">
+            <v>7.8539311859443695</v>
+          </cell>
+          <cell r="AD96">
+            <v>6.0029282576866763</v>
+          </cell>
+          <cell r="AF96">
+            <v>5.7327964860907752</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="U97">
+            <v>1975</v>
+          </cell>
+          <cell r="W97">
+            <v>8.3243045387994208</v>
+          </cell>
+          <cell r="Y97">
+            <v>7.9497108345534464</v>
+          </cell>
+          <cell r="AD97">
+            <v>6.0761346998535872</v>
+          </cell>
+          <cell r="AF97">
+            <v>5.8027086383601754</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="U98">
+            <v>1976</v>
+          </cell>
+          <cell r="W98">
+            <v>8.4245973645680898</v>
+          </cell>
+          <cell r="Y98">
+            <v>8.045490483162526</v>
+          </cell>
+          <cell r="AD98">
+            <v>6.1493411420204982</v>
+          </cell>
+          <cell r="AF98">
+            <v>5.8726207906295755</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="U99">
+            <v>1977</v>
+          </cell>
+          <cell r="W99">
+            <v>8.5248901903367571</v>
+          </cell>
+          <cell r="Y99">
+            <v>8.1412701317716021</v>
+          </cell>
+          <cell r="AD99">
+            <v>6.2225475841874083</v>
+          </cell>
+          <cell r="AF99">
+            <v>5.9425329428989748</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="U100">
+            <v>1978</v>
+          </cell>
+          <cell r="W100">
+            <v>8.6251830161054244</v>
+          </cell>
+          <cell r="Y100">
+            <v>8.2370497803806799</v>
+          </cell>
+          <cell r="AD100">
+            <v>6.2957540263543192</v>
+          </cell>
+          <cell r="AF100">
+            <v>6.012445095168375</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="U101">
+            <v>1979</v>
+          </cell>
+          <cell r="W101">
+            <v>8.7254758418740934</v>
+          </cell>
+          <cell r="Y101">
+            <v>8.3328294289897595</v>
+          </cell>
+          <cell r="AD101">
+            <v>6.3689604685212302</v>
+          </cell>
+          <cell r="AF101">
+            <v>6.0823572474377743</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="U102">
+            <v>1980</v>
+          </cell>
+          <cell r="W102">
+            <v>8.8257686676427607</v>
+          </cell>
+          <cell r="Y102">
+            <v>8.4286090775988356</v>
+          </cell>
+          <cell r="AD102">
+            <v>6.4421669106881403</v>
+          </cell>
+          <cell r="AF102">
+            <v>6.1522693997071736</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="U103">
+            <v>1981</v>
+          </cell>
+          <cell r="W103">
+            <v>8.9060029282576938</v>
+          </cell>
+          <cell r="Y103">
+            <v>8.5052327964860979</v>
+          </cell>
+          <cell r="AD103">
+            <v>6.5007320644216691</v>
+          </cell>
+          <cell r="AF103">
+            <v>6.2081991215226937</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="U104">
+            <v>1982</v>
+          </cell>
+          <cell r="W104">
+            <v>8.9862371888726287</v>
+          </cell>
+          <cell r="Y104">
+            <v>8.5818565153733601</v>
+          </cell>
+          <cell r="AD104">
+            <v>6.5592972181551978</v>
+          </cell>
+          <cell r="AF104">
+            <v>6.2641288433382138</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="U105">
+            <v>1983</v>
+          </cell>
+          <cell r="W105">
+            <v>9.0664714494875618</v>
+          </cell>
+          <cell r="Y105">
+            <v>8.6584802342606206</v>
+          </cell>
+          <cell r="AD105">
+            <v>6.6178623718887257</v>
+          </cell>
+          <cell r="AF105">
+            <v>6.3200585651537331</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="U106">
+            <v>1984</v>
+          </cell>
+          <cell r="W106">
+            <v>9.1467057101024967</v>
+          </cell>
+          <cell r="Y106">
+            <v>8.7351039531478847</v>
+          </cell>
+          <cell r="AD106">
+            <v>6.6764275256222554</v>
+          </cell>
+          <cell r="AF106">
+            <v>6.3759882869692532</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="U107">
+            <v>1985</v>
+          </cell>
+          <cell r="W107">
+            <v>9.2269399707174298</v>
+          </cell>
+          <cell r="Y107">
+            <v>8.8117276720351452</v>
+          </cell>
+          <cell r="AD107">
+            <v>6.7349926793557833</v>
+          </cell>
+          <cell r="AF107">
+            <v>6.4319180087847725</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="U108">
+            <v>1986</v>
+          </cell>
+          <cell r="W108">
+            <v>9.3071742313323629</v>
+          </cell>
+          <cell r="Y108">
+            <v>8.8883513909224057</v>
+          </cell>
+          <cell r="AD108">
+            <v>6.7935578330893112</v>
+          </cell>
+          <cell r="AF108">
+            <v>6.4878477306002917</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="U109">
+            <v>1987</v>
+          </cell>
+          <cell r="W109">
+            <v>9.3874084919472978</v>
+          </cell>
+          <cell r="Y109">
+            <v>8.9649751098096697</v>
+          </cell>
+          <cell r="AD109">
+            <v>6.8521229868228408</v>
+          </cell>
+          <cell r="AF109">
+            <v>6.5437774524158128</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="U110">
+            <v>1988</v>
+          </cell>
+          <cell r="W110">
+            <v>9.4676427525622309</v>
+          </cell>
+          <cell r="Y110">
+            <v>9.0415988286969302</v>
+          </cell>
+          <cell r="AD110">
+            <v>6.9106881405563687</v>
+          </cell>
+          <cell r="AF110">
+            <v>6.599707174231332</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="U111">
+            <v>1989</v>
+          </cell>
+          <cell r="W111">
+            <v>9.547877013177164</v>
+          </cell>
+          <cell r="Y111">
+            <v>9.1182225475841907</v>
+          </cell>
+          <cell r="AD111">
+            <v>6.9692532942898984</v>
+          </cell>
+          <cell r="AF111">
+            <v>6.655636896046853</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="U112">
+            <v>1990</v>
+          </cell>
+          <cell r="W112">
+            <v>9.6281112737920989</v>
+          </cell>
+          <cell r="Y112">
+            <v>9.1948462664714548</v>
+          </cell>
+          <cell r="AD112">
+            <v>7.0278184480234263</v>
+          </cell>
+          <cell r="AF112">
+            <v>6.7115666178623714</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="U113">
+            <v>1991</v>
+          </cell>
+          <cell r="W113">
+            <v>9.708345534407032</v>
+          </cell>
+          <cell r="Y113">
+            <v>9.2714699853587152</v>
+          </cell>
+          <cell r="AD113">
+            <v>7.0863836017569541</v>
+          </cell>
+          <cell r="AF113">
+            <v>6.7674963396778907</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="U114">
+            <v>1992</v>
+          </cell>
+          <cell r="W114">
+            <v>9.7885797950219668</v>
+          </cell>
+          <cell r="Y114">
+            <v>9.3480937042459775</v>
+          </cell>
+          <cell r="AD114">
+            <v>7.144948755490482</v>
+          </cell>
+          <cell r="AF114">
+            <v>6.8234260614934099</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="U115">
+            <v>1993</v>
+          </cell>
+          <cell r="W115">
+            <v>9.8688140556369</v>
+          </cell>
+          <cell r="Y115">
+            <v>9.4247174231332398</v>
+          </cell>
+          <cell r="AD115">
+            <v>7.2035139092240117</v>
+          </cell>
+          <cell r="AF115">
+            <v>6.8793557833089309</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="U116">
+            <v>1994</v>
+          </cell>
+          <cell r="W116">
+            <v>9.9490483162518331</v>
+          </cell>
+          <cell r="Y116">
+            <v>9.5013411420205003</v>
+          </cell>
+          <cell r="AD116">
+            <v>7.2620790629575414</v>
+          </cell>
+          <cell r="AF116">
+            <v>6.935285505124452</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="U117">
+            <v>1995</v>
+          </cell>
+          <cell r="W117">
+            <v>10.029282576866768</v>
+          </cell>
+          <cell r="Y117">
+            <v>9.5779648609077626</v>
+          </cell>
+          <cell r="AD117">
+            <v>7.3206442166910692</v>
+          </cell>
+          <cell r="AF117">
+            <v>6.9912152269399712</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="U118">
+            <v>1996</v>
+          </cell>
+          <cell r="W118">
+            <v>10.109516837481701</v>
+          </cell>
+          <cell r="Y118">
+            <v>9.6545885797950248</v>
+          </cell>
+          <cell r="AD118">
+            <v>7.3792093704245971</v>
+          </cell>
+          <cell r="AF118">
+            <v>7.0471449487554896</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="U119">
+            <v>1997</v>
+          </cell>
+          <cell r="W119">
+            <v>10.189751098096636</v>
+          </cell>
+          <cell r="Y119">
+            <v>9.7312122986822871</v>
+          </cell>
+          <cell r="AD119">
+            <v>7.437774524158125</v>
+          </cell>
+          <cell r="AF119">
+            <v>7.1030746705710088</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="U120">
+            <v>1998</v>
+          </cell>
+          <cell r="W120">
+            <v>10.269985358711569</v>
+          </cell>
+          <cell r="Y120">
+            <v>9.8078360175695476</v>
+          </cell>
+          <cell r="AD120">
+            <v>7.4963396778916547</v>
+          </cell>
+          <cell r="AF120">
+            <v>7.1590043923865299</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="U121">
+            <v>1999</v>
+          </cell>
+          <cell r="W121">
+            <v>10.350219619326502</v>
+          </cell>
+          <cell r="Y121">
+            <v>9.8844597364568099</v>
+          </cell>
+          <cell r="AD121">
+            <v>7.5549048316251834</v>
+          </cell>
+          <cell r="AF121">
+            <v>7.21493411420205</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="U122">
+            <v>2000</v>
+          </cell>
+          <cell r="W122">
+            <v>10.430453879941437</v>
+          </cell>
+          <cell r="Y122">
+            <v>9.9610834553440721</v>
+          </cell>
+          <cell r="AD122">
+            <v>7.6134699853587131</v>
+          </cell>
+          <cell r="AF122">
+            <v>7.270863836017571</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="U123">
+            <v>2001</v>
+          </cell>
+          <cell r="W123">
+            <v>10.549978320032251</v>
+          </cell>
+          <cell r="Y123">
+            <v>10.075229295630798</v>
+          </cell>
+          <cell r="AD123">
+            <v>7.700714102213321</v>
+          </cell>
+          <cell r="AF123">
+            <v>7.3541819676137212</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="U124">
+            <v>2002</v>
+          </cell>
+          <cell r="W124">
+            <v>10.669502760123063</v>
+          </cell>
+          <cell r="Y124">
+            <v>10.189375135917524</v>
+          </cell>
+          <cell r="AD124">
+            <v>7.7879582190679297</v>
+          </cell>
+          <cell r="AF124">
+            <v>7.4375000992098723</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="U125">
+            <v>2003</v>
+          </cell>
+          <cell r="W125">
+            <v>10.789027200213877</v>
+          </cell>
+          <cell r="Y125">
+            <v>10.303520976204252</v>
+          </cell>
+          <cell r="AD125">
+            <v>7.8752023359225376</v>
+          </cell>
+          <cell r="AF125">
+            <v>7.5208182308060234</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="U126">
+            <v>2004</v>
+          </cell>
+          <cell r="W126">
+            <v>10.908551640304688</v>
+          </cell>
+          <cell r="Y126">
+            <v>10.417666816490977</v>
+          </cell>
+          <cell r="AD126">
+            <v>7.9624464527771455</v>
+          </cell>
+          <cell r="AF126">
+            <v>7.6041363624021736</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="U127">
+            <v>2005</v>
+          </cell>
+          <cell r="W127">
+            <v>11.028076080395502</v>
+          </cell>
+          <cell r="Y127">
+            <v>10.531812656777705</v>
+          </cell>
+          <cell r="AD127">
+            <v>8.0496905696317533</v>
+          </cell>
+          <cell r="AF127">
+            <v>7.6874544939983238</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="U128">
+            <v>2006</v>
+          </cell>
+          <cell r="W128">
+            <v>11.147600520486314</v>
+          </cell>
+          <cell r="Y128">
+            <v>10.645958497064429</v>
+          </cell>
+          <cell r="AD128">
+            <v>8.1369346864863612</v>
+          </cell>
+          <cell r="AF128">
+            <v>7.7707726255944749</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="U129">
+            <v>2007</v>
+          </cell>
+          <cell r="W129">
+            <v>11.267124960577128</v>
+          </cell>
+          <cell r="Y129">
+            <v>10.760104337351157</v>
+          </cell>
+          <cell r="AD129">
+            <v>8.2241788033409708</v>
+          </cell>
+          <cell r="AF129">
+            <v>7.8540907571906269</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="U130">
+            <v>2008</v>
+          </cell>
+          <cell r="W130">
+            <v>11.386649400667942</v>
+          </cell>
+          <cell r="Y130">
+            <v>10.874250177637883</v>
+          </cell>
+          <cell r="AD130">
+            <v>8.3114229201955805</v>
+          </cell>
+          <cell r="AF130">
+            <v>7.9374088887867789</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="U131">
+            <v>2009</v>
+          </cell>
+          <cell r="W131">
+            <v>11.506173840758754</v>
+          </cell>
+          <cell r="Y131">
+            <v>10.988396017924609</v>
+          </cell>
+          <cell r="AD131">
+            <v>8.3986670370501884</v>
+          </cell>
+          <cell r="AF131">
+            <v>8.02072702038293</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="U132">
+            <v>2010</v>
+          </cell>
+          <cell r="W132">
+            <v>11.625698280849567</v>
+          </cell>
+          <cell r="Y132">
+            <v>11.102541858211337</v>
+          </cell>
+          <cell r="AD132">
+            <v>8.4859111539047962</v>
+          </cell>
+          <cell r="AF132">
+            <v>8.1040451519790793</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="U133">
+            <v>2011</v>
+          </cell>
+          <cell r="W133">
+            <v>12.080432100816614</v>
+          </cell>
+          <cell r="Y133">
+            <v>11.536812656279865</v>
+          </cell>
+          <cell r="AD133">
+            <v>8.8178336502311065</v>
+          </cell>
+          <cell r="AF133">
+            <v>8.421031135970706</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="U134">
+            <v>2012</v>
+          </cell>
+          <cell r="W134">
+            <v>12.53516592078366</v>
+          </cell>
+          <cell r="Y134">
+            <v>11.971083454348395</v>
+          </cell>
+          <cell r="AD134">
+            <v>9.1497561465574169</v>
+          </cell>
+          <cell r="AF134">
+            <v>8.7380171199623327</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="U135">
+            <v>2013</v>
+          </cell>
+          <cell r="W135">
+            <v>12.989899740750705</v>
+          </cell>
+          <cell r="Y135">
+            <v>12.405354252416922</v>
+          </cell>
+          <cell r="AD135">
+            <v>9.4816786428837272</v>
+          </cell>
+          <cell r="AF135">
+            <v>9.0550031039539594</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="U136">
+            <v>2014</v>
+          </cell>
+          <cell r="W136">
+            <v>13.444633560717751</v>
+          </cell>
+          <cell r="Y136">
+            <v>12.839625050485452</v>
+          </cell>
+          <cell r="AD136">
+            <v>9.8136011392100357</v>
+          </cell>
+          <cell r="AF136">
+            <v>9.3719890879455843</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="U137">
+            <v>2015</v>
+          </cell>
+          <cell r="W137">
+            <v>13.899367380684797</v>
+          </cell>
+          <cell r="Y137">
+            <v>13.27389584855398</v>
+          </cell>
+          <cell r="AD137">
+            <v>10.145523635536348</v>
+          </cell>
+          <cell r="AF137">
+            <v>9.688975071937211</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,41 +6641,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7F14C4-B775-8E4B-8500-5A305AA67B75}">
   <dimension ref="A3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="C32" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="71.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="2" max="2" width="71.296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="57.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" style="2"/>
+    <col min="5" max="5" width="36.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.796875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,7 +6693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -607,7 +6707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1.2</v>
       </c>
@@ -621,12 +6721,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -643,7 +6743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2.1</v>
       </c>
@@ -657,7 +6757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -671,12 +6771,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -693,7 +6793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>3.1</v>
       </c>
@@ -707,7 +6807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="156" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>3.2</v>
       </c>
@@ -721,7 +6821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>3.3</v>
       </c>
@@ -735,7 +6835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>3.4</v>
       </c>
@@ -746,7 +6846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>3.5</v>
       </c>
@@ -759,8 +6859,11 @@
       <c r="E30" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="F30" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="178.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>3.6</v>
       </c>
@@ -773,8 +6876,11 @@
       <c r="E31" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="F31" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>3.7</v>
       </c>
@@ -787,8 +6893,11 @@
       <c r="E32" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="F32" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>3.8</v>
       </c>
@@ -802,7 +6911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3.9</v>
       </c>
@@ -816,7 +6925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="238" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="241.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
@@ -829,8 +6938,11 @@
       <c r="E35" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="F35" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>3.11</v>
       </c>
@@ -842,9 +6954,13 @@
       </c>
       <c r="E36" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>